--- a/spring20/assignment03/Grading Template.xlsx
+++ b/spring20/assignment03/Grading Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aavol\Documents\LMU\CMSI 186\Live on Github\f 19\cmsi186\fall19\assignment02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aavol\Documents\LMU\CMSI 186 - Spring 2020\Github\Volosin\cmsi186\spring20\assignment03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D31FA4-1C70-4D61-A455-3AE2AC9769A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D220BA29-B042-4298-8998-130ACF721956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="29980" windowHeight="19400" activeTab="2" xr2:uid="{63A3425B-6033-479B-8BF1-9D375DE2499F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" activeTab="2" xr2:uid="{63A3425B-6033-479B-8BF1-9D375DE2499F}"/>
   </bookViews>
   <sheets>
     <sheet name="assignment00" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -98,9 +100,6 @@
     <t>class Die</t>
   </si>
   <si>
-    <t>class Die exists</t>
-  </si>
-  <si>
     <t>constructor works</t>
   </si>
   <si>
@@ -116,9 +115,6 @@
     <t>instance toString works</t>
   </si>
   <si>
-    <t>class DiceSet exists</t>
-  </si>
-  <si>
     <t>sum works</t>
   </si>
   <si>
@@ -128,21 +124,12 @@
     <t>getIndividual works</t>
   </si>
   <si>
-    <t>isIdentical works</t>
-  </si>
-  <si>
     <t>class HighRoll</t>
   </si>
   <si>
-    <t>class HighRoll exists</t>
-  </si>
-  <si>
     <t>TUI works, all options present</t>
   </si>
   <si>
-    <t>option 1 roll all works</t>
-  </si>
-  <si>
     <t>option 2 roll 1 works</t>
   </si>
   <si>
@@ -161,9 +148,6 @@
     <t>Passes all evaluation tests in Test Harness</t>
   </si>
   <si>
-    <t>HighRoll passes all evaluation tests</t>
-  </si>
-  <si>
     <t>Sent GItHub and Slack Names</t>
   </si>
   <si>
@@ -180,6 +164,39 @@
   </si>
   <si>
     <t>option 3 sum works</t>
+  </si>
+  <si>
+    <t>HighRoll passes all evaluation tests by professor</t>
+  </si>
+  <si>
+    <t>Hard  copy lab questions</t>
+  </si>
+  <si>
+    <t>Die.java compiles</t>
+  </si>
+  <si>
+    <t>Die.java exists and is uploaded to GitHub</t>
+  </si>
+  <si>
+    <t>DiceSet.java exists and is uploaded to GitHub</t>
+  </si>
+  <si>
+    <t>DiceSet.java compiles</t>
+  </si>
+  <si>
+    <t>Constructor constructs a DiceSet and sets appropriate fields</t>
+  </si>
+  <si>
+    <t>class wide toString works</t>
+  </si>
+  <si>
+    <t>HighRoll.java exists and is uploaded to GitHub</t>
+  </si>
+  <si>
+    <t>HighRoll.java compiles</t>
+  </si>
+  <si>
+    <t>option 1 roll all works, outputs string representation of DiceSet,</t>
   </si>
 </sst>
 </file>
@@ -282,10 +299,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -648,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -659,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -670,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -883,16 +900,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A814EA-F008-428D-8D17-C9F98DC7D045}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.90625" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
@@ -928,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -937,24 +954,20 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
       <c r="C6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -964,10 +977,10 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -977,10 +990,10 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="18"/>
       <c r="C8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -990,10 +1003,10 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
       <c r="C9" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -1001,27 +1014,21 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="18"/>
       <c r="C11" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -1029,38 +1036,38 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="18"/>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="B12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="18"/>
       <c r="C13" s="6">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="18"/>
       <c r="C14" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
@@ -1070,10 +1077,10 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="18"/>
       <c r="C15" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
@@ -1083,10 +1090,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="18"/>
       <c r="C16" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
@@ -1096,10 +1103,10 @@
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="18"/>
       <c r="C17" s="6">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
@@ -1107,40 +1114,34 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="15">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>33</v>
+      <c r="B18" s="18"/>
+      <c r="C18" s="6">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="18"/>
-      <c r="C19" s="14">
-        <v>2</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="18"/>
-      <c r="C20" s="14">
-        <v>3</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>35</v>
+      <c r="C20" s="6">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -1148,38 +1149,38 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="18"/>
-      <c r="C21" s="14">
-        <v>4</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>36</v>
+      <c r="B21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="18"/>
       <c r="C22" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
       <c r="C23" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -1189,79 +1190,143 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="18"/>
       <c r="C24" s="14">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="18"/>
+      <c r="C25" s="14">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="18"/>
+      <c r="C26" s="14">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="18"/>
+      <c r="C27" s="14">
+        <v>6</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="18"/>
+      <c r="C28" s="14">
         <v>7</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="19"/>
-      <c r="C25" s="17">
+      <c r="D28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="20"/>
+      <c r="C29" s="17">
         <v>8</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="10"/>
-      <c r="C26" s="14">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-      <c r="C27" s="14">
+      <c r="D29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="10"/>
+      <c r="C30" s="14">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="10"/>
+      <c r="C31" s="14">
         <v>2</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="14">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="10"/>
+      <c r="C32" s="14">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="14">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E29">
-        <f>SUM(E4:E28)</f>
-        <v>26</v>
+      <c r="E34">
+        <f>SUM(E4:E33)</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B21:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spring20/assignment03/Grading Template.xlsx
+++ b/spring20/assignment03/Grading Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aavol\Documents\LMU\CMSI 186 - Spring 2020\Github\Volosin\cmsi186\spring20\assignment03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8885541E-5569-4976-8750-518AA423C9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770FD854-BCF7-4FF8-A082-3F18C7DAEBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{63A3425B-6033-479B-8BF1-9D375DE2499F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>option 8 display menu works (do not display menu every time a user inputs a menu option</t>
+  </si>
+  <si>
+    <t>program handles invalid number of arguments</t>
+  </si>
+  <si>
+    <t>parsing args to ints is in a try catch</t>
   </si>
 </sst>
 </file>
@@ -293,6 +299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,7 +312,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A814EA-F008-428D-8D17-C9F98DC7D045}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,7 +664,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4">
@@ -673,7 +679,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -686,7 +692,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
@@ -699,7 +705,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4">
         <v>4</v>
       </c>
@@ -712,7 +718,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4">
         <v>5</v>
       </c>
@@ -725,7 +731,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4">
         <v>6</v>
       </c>
@@ -738,7 +744,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="4">
         <v>7</v>
       </c>
@@ -751,7 +757,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4">
         <v>8</v>
       </c>
@@ -764,7 +770,7 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4">
         <v>9</v>
       </c>
@@ -810,7 +816,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="8">
@@ -825,7 +831,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4">
         <v>2</v>
       </c>
@@ -838,7 +844,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4">
         <v>3</v>
       </c>
@@ -851,7 +857,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4">
         <v>4</v>
       </c>
@@ -864,7 +870,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="4">
         <v>5</v>
       </c>
@@ -877,7 +883,7 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -890,7 +896,7 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="16"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="4">
         <v>7</v>
       </c>
@@ -903,7 +909,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="4">
         <v>8</v>
       </c>
@@ -916,7 +922,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="4">
         <v>9</v>
       </c>
@@ -929,7 +935,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="16"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="4">
         <v>10</v>
       </c>
@@ -942,7 +948,7 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="4">
         <v>11</v>
       </c>
@@ -955,7 +961,7 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4">
         <v>12</v>
       </c>
@@ -968,7 +974,7 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4">
         <v>13</v>
       </c>
@@ -981,7 +987,7 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4">
         <v>14</v>
       </c>
@@ -994,7 +1000,7 @@
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="4">
         <v>15</v>
       </c>
@@ -1007,21 +1013,21 @@
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="4"/>
       <c r="D31" s="7"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="12">
@@ -1036,7 +1042,7 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="11">
         <v>2</v>
       </c>
@@ -1049,227 +1055,249 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="11">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="17"/>
+      <c r="C36" s="11">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="17"/>
+      <c r="C37" s="11">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5">
+        <v>6</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="17"/>
+      <c r="C38" s="11">
+        <v>7</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="5">
+        <v>4</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="17"/>
+      <c r="C39" s="11">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="17"/>
+      <c r="C40" s="11">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="5">
+        <v>4</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="17"/>
+      <c r="C41" s="11">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="17"/>
+      <c r="C42" s="11">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="17"/>
+      <c r="C43" s="11">
+        <v>12</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="7">
+        <v>4</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="17"/>
+      <c r="C44" s="11">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="7">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="17"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="17"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="19"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="17"/>
+      <c r="C49" s="11">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="17"/>
+      <c r="C50" s="11">
         <v>3</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="19"/>
+      <c r="C51" s="14">
+        <v>4</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="6">
         <v>10</v>
       </c>
-      <c r="E35" s="5">
-        <v>6</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="16"/>
-      <c r="C36" s="11">
-        <v>4</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="5">
-        <v>4</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="16"/>
-      <c r="C37" s="11">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="5">
-        <v>4</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="16"/>
-      <c r="C38" s="11">
-        <v>6</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="5">
-        <v>4</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="16"/>
-      <c r="C39" s="11">
-        <v>7</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5">
-        <v>4</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="16"/>
-      <c r="C40" s="11">
-        <v>8</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="5">
-        <v>4</v>
-      </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="16"/>
-      <c r="C41" s="11">
-        <v>9</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="7">
-        <v>4</v>
-      </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="16"/>
-      <c r="C42" s="11">
-        <v>10</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="7">
-        <v>5</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="16"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="16"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="18"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="12">
-        <v>1</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="16"/>
-      <c r="C47" s="11">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="9">
         <v>2</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="16"/>
-      <c r="C48" s="11">
-        <v>3</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="5">
-        <v>3</v>
-      </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="18"/>
-      <c r="C49" s="14">
-        <v>4</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="6">
-        <v>10</v>
-      </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
+      <c r="C53" s="11">
         <v>2</v>
       </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="16"/>
-      <c r="C51" s="11">
+      <c r="D53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="7">
         <v>2</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="7">
-        <v>2</v>
-      </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <f>SUM(E4:E49)</f>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="20"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <f>SUM(E4:E51)</f>
         <v>123</v>
       </c>
     </row>
@@ -1277,9 +1305,9 @@
   <mergeCells count="5">
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="B16:B32"/>
-    <mergeCell ref="B33:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B33:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/spring20/assignment03/Grading Template.xlsx
+++ b/spring20/assignment03/Grading Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aavol\Documents\LMU\CMSI 186 - Spring 2020\Github\Volosin\cmsi186\spring20\assignment03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770FD854-BCF7-4FF8-A082-3F18C7DAEBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F279A84-27A3-408A-9E90-41023FCCA547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{63A3425B-6033-479B-8BF1-9D375DE2499F}"/>
   </bookViews>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A814EA-F008-428D-8D17-C9F98DC7D045}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="199" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,29 +1057,33 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
       <c r="C35" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7">
+        <v>3</v>
+      </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="17"/>
       <c r="C36" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7">
+        <v>3</v>
+      </c>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
       <c r="C37" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>10</v>
@@ -1092,7 +1096,7 @@
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="17"/>
       <c r="C38" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>29</v>
@@ -1105,7 +1109,7 @@
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="17"/>
       <c r="C39" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>11</v>
@@ -1118,7 +1122,7 @@
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="17"/>
       <c r="C40" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>18</v>
@@ -1131,7 +1135,7 @@
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="17"/>
       <c r="C41" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>12</v>
@@ -1144,7 +1148,7 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="17"/>
       <c r="C42" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>13</v>
@@ -1157,7 +1161,7 @@
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="17"/>
       <c r="C43" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>14</v>
@@ -1170,7 +1174,7 @@
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="17"/>
       <c r="C44" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>43</v>
@@ -1298,7 +1302,7 @@
       </c>
       <c r="E55">
         <f>SUM(E4:E51)</f>
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
